--- a/survival_results/data/canine-survival_model_params-toc_vs_dox.xlsx
+++ b/survival_results/data/canine-survival_model_params-toc_vs_dox.xlsx
@@ -697,28 +697,28 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.667857142857143</v>
+        <v>0.607142857142857</v>
       </c>
       <c r="F12" t="n">
-        <v>0.168238072065404</v>
+        <v>0.193377759794639</v>
       </c>
       <c r="G12" t="n">
-        <v>0.928727021813167</v>
+        <v>0.886940196184937</v>
       </c>
       <c r="H12" t="n">
-        <v>0.480262932798605</v>
+        <v>0.415611391348791</v>
       </c>
       <c r="I12" t="s">
         <v>9</v>
@@ -738,16 +738,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.601071428571429</v>
+        <v>0.546428571428571</v>
       </c>
       <c r="F13" t="n">
-        <v>0.198532516237002</v>
+        <v>0.220240934193225</v>
       </c>
       <c r="G13" t="n">
-        <v>0.886987028859377</v>
+        <v>0.841400610006032</v>
       </c>
       <c r="H13" t="n">
-        <v>0.407319217181221</v>
+        <v>0.354865661045015</v>
       </c>
       <c r="I13" t="s">
         <v>9</v>
@@ -767,16 +767,16 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.601071428571429</v>
+        <v>0.546428571428571</v>
       </c>
       <c r="F14" t="n">
-        <v>0.198532516237002</v>
+        <v>0.220240934193225</v>
       </c>
       <c r="G14" t="n">
-        <v>0.886987028859377</v>
+        <v>0.841400610006032</v>
       </c>
       <c r="H14" t="n">
-        <v>0.407319217181221</v>
+        <v>0.354865661045015</v>
       </c>
       <c r="I14" t="s">
         <v>9</v>
@@ -784,28 +784,28 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="B15" t="n">
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.601071428571429</v>
+        <v>0.478125</v>
       </c>
       <c r="F15" t="n">
-        <v>0.198532516237002</v>
+        <v>0.257610581986547</v>
       </c>
       <c r="G15" t="n">
-        <v>0.886987028859377</v>
+        <v>0.792172893061628</v>
       </c>
       <c r="H15" t="n">
-        <v>0.407319217181221</v>
+        <v>0.288577806217885</v>
       </c>
       <c r="I15" t="s">
         <v>9</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>376</v>
+        <v>458</v>
       </c>
       <c r="B16" t="n">
         <v>7</v>
@@ -825,16 +825,16 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.601071428571429</v>
+        <v>0.478125</v>
       </c>
       <c r="F16" t="n">
-        <v>0.198532516237002</v>
+        <v>0.257610581986547</v>
       </c>
       <c r="G16" t="n">
-        <v>0.886987028859377</v>
+        <v>0.792172893061628</v>
       </c>
       <c r="H16" t="n">
-        <v>0.407319217181221</v>
+        <v>0.288577806217885</v>
       </c>
       <c r="I16" t="s">
         <v>9</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>393</v>
+        <v>483</v>
       </c>
       <c r="B17" t="n">
         <v>6</v>
@@ -854,16 +854,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.500892857142857</v>
+        <v>0.3984375</v>
       </c>
       <c r="F17" t="n">
-        <v>0.269719286178665</v>
+        <v>0.315747597433109</v>
       </c>
       <c r="G17" t="n">
-        <v>0.849826581633715</v>
+        <v>0.739818264084138</v>
       </c>
       <c r="H17" t="n">
-        <v>0.295229238245777</v>
+        <v>0.214583025471503</v>
       </c>
       <c r="I17" t="s">
         <v>9</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>458</v>
+        <v>492</v>
       </c>
       <c r="B18" t="n">
         <v>5</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.500892857142857</v>
+        <v>0.3984375</v>
       </c>
       <c r="F18" t="n">
-        <v>0.269719286178665</v>
+        <v>0.315747597433109</v>
       </c>
       <c r="G18" t="n">
-        <v>0.849826581633715</v>
+        <v>0.739818264084138</v>
       </c>
       <c r="H18" t="n">
-        <v>0.295229238245777</v>
+        <v>0.214583025471503</v>
       </c>
       <c r="I18" t="s">
         <v>9</v>
@@ -900,28 +900,28 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>483</v>
+        <v>636</v>
       </c>
       <c r="B19" t="n">
         <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.375669642857143</v>
+        <v>0.3984375</v>
       </c>
       <c r="F19" t="n">
-        <v>0.395071925945216</v>
+        <v>0.315747597433109</v>
       </c>
       <c r="G19" t="n">
-        <v>0.814876765570964</v>
+        <v>0.739818264084138</v>
       </c>
       <c r="H19" t="n">
-        <v>0.173188985779376</v>
+        <v>0.214583025471503</v>
       </c>
       <c r="I19" t="s">
         <v>9</v>
@@ -929,28 +929,28 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>636</v>
+        <v>693</v>
       </c>
       <c r="B20" t="n">
         <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.375669642857143</v>
+        <v>0.265625</v>
       </c>
       <c r="F20" t="n">
-        <v>0.395071925945216</v>
+        <v>0.516103877093989</v>
       </c>
       <c r="G20" t="n">
-        <v>0.814876765570964</v>
+        <v>0.730427917724291</v>
       </c>
       <c r="H20" t="n">
-        <v>0.173188985779376</v>
+        <v>0.0965963087019252</v>
       </c>
       <c r="I20" t="s">
         <v>9</v>
@@ -958,28 +958,28 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>693</v>
+        <v>882</v>
       </c>
       <c r="B21" t="n">
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.187834821428571</v>
+        <v>0.265625</v>
       </c>
       <c r="F21" t="n">
-        <v>0.809988781817416</v>
+        <v>0.516103877093989</v>
       </c>
       <c r="G21" t="n">
-        <v>0.918839818560856</v>
+        <v>0.730427917724291</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0383983360629321</v>
+        <v>0.0965963087019252</v>
       </c>
       <c r="I21" t="s">
         <v>9</v>
@@ -987,29 +987,25 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>882</v>
+        <v>909</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.187834821428571</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.809988781817416</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.918839818560856</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.0383983360629321</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F22" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22"/>
       <c r="I22" t="s">
         <v>9</v>
       </c>
@@ -1103,7 +1099,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>231</v>
+        <v>348</v>
       </c>
       <c r="B26" t="n">
         <v>2</v>
